--- a/biology/Zoologie/Celestus_haetianus/Celestus_haetianus.xlsx
+++ b/biology/Zoologie/Celestus_haetianus/Celestus_haetianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celestus haetianus est une espèce de sauriens de la famille des Diploglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celestus haetianus est une espèce de sauriens de la famille des Diploglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 mai 2012) :
 Celestus haetianus haetianus (Cochran, 1927)
 Celestus haetianus mylicus (Schwartz, 1965)
 Celestus haetianus surdus (Schwartz, 1965)</t>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, Haïti.
 </t>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cochran, 1927 : A new genus of anguid lizards from Haiti. Proceedings of the Biological Society of Washington, vol. 40, p. 91-92 (texte intégral).
 Schwartz, 1965 : Two new subspecies of the anguid lizard Wetmorena from Hispaniola. Proceedings of the Biological Society of Washington, vol. 78, p. 39-48 (texte intégral).</t>
